--- a/assays/population/isa.assay.xlsx
+++ b/assays/population/isa.assay.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="isa_assay" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="isa_datamap" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>ASSAY</t>
   </si>
@@ -92,6 +93,96 @@
   </si>
   <si>
     <t>0000-0001-6242-5846</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Data Format</t>
+  </si>
+  <si>
+    <t>Data Selector Format</t>
+  </si>
+  <si>
+    <t>Explication</t>
+  </si>
+  <si>
+    <t>Term Source REF</t>
+  </si>
+  <si>
+    <t>Term Accession Number</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Source REF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Accession Number </t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Source REF  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Accession Number  </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Generated By</t>
+  </si>
+  <si>
+    <t>population.csv#country</t>
+  </si>
+  <si>
+    <t>text/csv</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>NCIT:C25464</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>NCIT:C45253</t>
+  </si>
+  <si>
+    <t>Countries of the world</t>
+  </si>
+  <si>
+    <t>SPARQL-Query</t>
+  </si>
+  <si>
+    <t>population.csv#population</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>NCIT:C14225</t>
+  </si>
+  <si>
+    <t>humans living in country</t>
   </si>
 </sst>
 </file>
@@ -144,6 +235,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="datamapTable" displayName="datamapTable" ref="A1:N3" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:N3">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Data" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Explication" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Term Source REF" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Accession Number" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Unit" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Term Source REF " totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Accession Number " totalsRowFunction="none"/>
+    <tableColumn id="10" name="Object Type" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Term Source REF  " totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Accession Number  " totalsRowFunction="none"/>
+    <tableColumn id="13" name="Description" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Generated By" totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,4 +704,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>